--- a/excel/collective/zestawy_dla_uczniow/zestaw_003.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_003.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t>ZESTAW ZADAŃ NR 3 - CZĘŚĆ 1</t>
   </si>
@@ -61,883 +61,877 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Szymon Wójcik</t>
+    <t>Oliwia Sadowska</t>
+  </si>
+  <si>
+    <t>Anna Rogalska</t>
+  </si>
+  <si>
+    <t>Antoni Nowak</t>
+  </si>
+  <si>
+    <t>Natalia Zawadzka</t>
+  </si>
+  <si>
+    <t>Julia Wójcik</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 3 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>22,70</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,30</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>11,30</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>4,30</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>2,60</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 3 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>13,69</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>5,82</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>3,69</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>3,11</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>25,19</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>25,32</t>
+  </si>
+  <si>
+    <t>23,39</t>
+  </si>
+  <si>
+    <t>29,01</t>
+  </si>
+  <si>
+    <t>9,20</t>
+  </si>
+  <si>
+    <t>17,00</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>26,88</t>
+  </si>
+  <si>
+    <t>11,83</t>
+  </si>
+  <si>
+    <t>1,76</t>
+  </si>
+  <si>
+    <t>19,19</t>
+  </si>
+  <si>
+    <t>29,23</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy pasek?</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Maciejewska</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Woźniak</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Aleksander Woźniak</t>
+  </si>
+  <si>
+    <t>24.04.1982</t>
+  </si>
+  <si>
+    <t>2 699,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Król</t>
+  </si>
+  <si>
+    <t>22.01.2005</t>
+  </si>
+  <si>
+    <t>6 460,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Wójcik</t>
+  </si>
+  <si>
+    <t>18.12.1984</t>
+  </si>
+  <si>
+    <t>12 501,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Piekarska</t>
+  </si>
+  <si>
+    <t>27.03.1987</t>
+  </si>
+  <si>
+    <t>10 225,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Kaczmarek</t>
+  </si>
+  <si>
+    <t>17.01.2003</t>
+  </si>
+  <si>
+    <t>5 876,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Czarnecka</t>
+  </si>
+  <si>
+    <t>12.09.2002</t>
+  </si>
+  <si>
+    <t>2 796,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Jaworska</t>
+  </si>
+  <si>
+    <t>22.05.2001</t>
+  </si>
+  <si>
+    <t>7 145,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Sadowska</t>
+  </si>
+  <si>
+    <t>23.09.1989</t>
+  </si>
+  <si>
+    <t>3 664,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Lewandowski</t>
+  </si>
+  <si>
+    <t>20.02.1982</t>
+  </si>
+  <si>
+    <t>10 452,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Piekarska</t>
+  </si>
+  <si>
+    <t>24.06.1998</t>
+  </si>
+  <si>
+    <t>7 808,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Lewandowski</t>
+  </si>
+  <si>
+    <t>28.05.2004</t>
+  </si>
+  <si>
+    <t>8 312,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Sadowska</t>
+  </si>
+  <si>
+    <t>06.02.2005</t>
+  </si>
+  <si>
+    <t>10 666,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Kaczmarek</t>
+  </si>
+  <si>
+    <t>25.06.1996</t>
+  </si>
+  <si>
+    <t>10 352,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Wilk</t>
+  </si>
+  <si>
+    <t>06.06.1977</t>
+  </si>
+  <si>
+    <t>7 618,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Nowak</t>
+  </si>
+  <si>
+    <t>14.04.1977</t>
+  </si>
+  <si>
+    <t>14 716,00 zł</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>=...</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+  </si>
+  <si>
+    <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Zysk" i oblicz: Zysk = Cena sprzedaży - Cena z magazynu</t>
+  </si>
+  <si>
+    <t>3. Dodaj kolumnę "Prowizja sprzedawcy" z warunkiem:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   JEŻELI(cena_sprzedazy &gt; 1000; zysk * 0,2; zysk * 0,1)</t>
+  </si>
+  <si>
+    <t>4. Oblicz w osobnych komórkach poniżej:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Suma ceny sprzedaży (funkcja SUMA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Suma ceny sprzedaży dla produktów &gt; 1000 zł (funkcja SUMA.JEŻELI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Suma ceny sprzedaży dla produktów &lt;= 1000 zł (funkcja SUMA.JEŻELI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Suma ceny sprzedaży dla woj. mazowieckiego (funkcja SUMA.JEŻELI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Suma ceny sprzedaży w miesiącu "styczeń" (funkcja SUMA.JEŻELI)</t>
+  </si>
+  <si>
+    <t>Lp.</t>
+  </si>
+  <si>
+    <t>Miesiąc</t>
+  </si>
+  <si>
+    <t>Opis produktu</t>
+  </si>
+  <si>
+    <t>Cena z magazynu</t>
+  </si>
+  <si>
+    <t>Cena sprzedaży</t>
+  </si>
+  <si>
+    <t>Sprzedawca</t>
+  </si>
+  <si>
+    <t>Województwo</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 173,00 zł</t>
+  </si>
+  <si>
+    <t>1 349,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>707,00 zł</t>
+  </si>
+  <si>
+    <t>912,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 396,00 zł</t>
+  </si>
+  <si>
+    <t>1 787,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 070,00 zł</t>
+  </si>
+  <si>
+    <t>1 284,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>503,00 zł</t>
+  </si>
+  <si>
+    <t>563,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 232,00 zł</t>
+  </si>
+  <si>
+    <t>1 417,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 086,00 zł</t>
+  </si>
+  <si>
+    <t>1 281,00 zł</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 192,00 zł</t>
+  </si>
+  <si>
+    <t>1 454,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 274,00 zł</t>
+  </si>
+  <si>
+    <t>1 631,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 172,00 zł</t>
+  </si>
+  <si>
+    <t>1 289,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 108,00 zł</t>
+  </si>
+  <si>
+    <t>1 540,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 408,00 zł</t>
+  </si>
+  <si>
+    <t>1 563,00 zł</t>
+  </si>
+  <si>
+    <t>1 216,00 zł</t>
+  </si>
+  <si>
+    <t>1 581,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 457,00 zł</t>
+  </si>
+  <si>
+    <t>1 690,00 zł</t>
+  </si>
+  <si>
+    <t>1 439,00 zł</t>
+  </si>
+  <si>
+    <t>1 943,00 zł</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 219,00 zł</t>
+  </si>
+  <si>
+    <t>1 475,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>1 065,00 zł</t>
+  </si>
+  <si>
+    <t>1 438,00 zł</t>
+  </si>
+  <si>
+    <t>1 050,00 zł</t>
+  </si>
+  <si>
+    <t>1 397,00 zł</t>
+  </si>
+  <si>
+    <t>966,00 zł</t>
+  </si>
+  <si>
+    <t>1 072,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 112,00 zł</t>
+  </si>
+  <si>
+    <t>1 468,00 zł</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 051,00 zł</t>
+  </si>
+  <si>
+    <t>1 356,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>1 369,00 zł</t>
+  </si>
+  <si>
+    <t>1 602,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 629,00 zł</t>
+  </si>
+  <si>
+    <t>700,00 zł</t>
+  </si>
+  <si>
+    <t>854,00 zł</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 482,00 zł</t>
+  </si>
+  <si>
+    <t>1 704,00 zł</t>
+  </si>
+  <si>
+    <t>1 064,00 zł</t>
+  </si>
+  <si>
+    <t>1 362,00 zł</t>
+  </si>
+  <si>
+    <t>1 212,00 zł</t>
+  </si>
+  <si>
+    <t>1 660,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>1 034,00 zł</t>
+  </si>
+  <si>
+    <t>1 303,00 zł</t>
   </si>
   <si>
     <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Jakub Piotrowski</t>
-  </si>
-  <si>
-    <t>Hanna Maciejewska</t>
-  </si>
-  <si>
-    <t>Kacper Jankowski</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 3 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>4,70</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,50</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>2,30</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>2,90</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>12,20</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>9,40</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 3 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>6,03</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>1,16</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>21,18</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>17,20</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>30,94</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>5,86</t>
-  </si>
-  <si>
-    <t>26,75</t>
-  </si>
-  <si>
-    <t>8,03</t>
-  </si>
-  <si>
-    <t>11,46</t>
-  </si>
-  <si>
-    <t>16,25</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>19,73</t>
-  </si>
-  <si>
-    <t>27,54</t>
-  </si>
-  <si>
-    <t>27,21</t>
-  </si>
-  <si>
-    <t>29,57</t>
-  </si>
-  <si>
-    <t>29,44</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Rogalska</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Urbaniak</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Lena Sikorska</t>
-  </si>
-  <si>
-    <t>07.03.2002</t>
-  </si>
-  <si>
-    <t>6 756,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Lewandowski</t>
-  </si>
-  <si>
-    <t>05.05.1998</t>
-  </si>
-  <si>
-    <t>3 962,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Kamiński</t>
-  </si>
-  <si>
-    <t>01.03.1991</t>
-  </si>
-  <si>
-    <t>5 587,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Dąbrowski</t>
-  </si>
-  <si>
-    <t>09.08.1979</t>
-  </si>
-  <si>
-    <t>5 542,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Urbaniak</t>
-  </si>
-  <si>
-    <t>24.01.2001</t>
-  </si>
-  <si>
-    <t>9 731,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Malinowska</t>
-  </si>
-  <si>
-    <t>14.09.1977</t>
-  </si>
-  <si>
-    <t>2 988,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Krawczyk</t>
-  </si>
-  <si>
-    <t>23.04.1986</t>
-  </si>
-  <si>
-    <t>9 644,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Sikorska</t>
-  </si>
-  <si>
-    <t>26.10.1975</t>
-  </si>
-  <si>
-    <t>3 142,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Olszewska</t>
-  </si>
-  <si>
-    <t>10.05.1993</t>
-  </si>
-  <si>
-    <t>9 829,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Kowalski</t>
-  </si>
-  <si>
-    <t>17.02.1984</t>
-  </si>
-  <si>
-    <t>12 673,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Czarnecka</t>
-  </si>
-  <si>
-    <t>25.01.2003</t>
-  </si>
-  <si>
-    <t>5 117,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Zawadzka</t>
-  </si>
-  <si>
-    <t>13.11.1978</t>
-  </si>
-  <si>
-    <t>13 792,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Czarnecka</t>
-  </si>
-  <si>
-    <t>18.07.1998</t>
-  </si>
-  <si>
-    <t>6 522,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Bednarska</t>
-  </si>
-  <si>
-    <t>18.09.1979</t>
-  </si>
-  <si>
-    <t>8 388,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Górska</t>
-  </si>
-  <si>
-    <t>02.01.2004</t>
-  </si>
-  <si>
-    <t>9 230,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Sikorska</t>
-  </si>
-  <si>
-    <t>14.01.1987</t>
-  </si>
-  <si>
-    <t>14 002,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Kamiński</t>
-  </si>
-  <si>
-    <t>14.05.1999</t>
-  </si>
-  <si>
-    <t>11 592,00 zł</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>=...</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
-  </si>
-  <si>
-    <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Zysk" i oblicz: Zysk = Cena sprzedaży - Cena z magazynu</t>
-  </si>
-  <si>
-    <t>3. Dodaj kolumnę "Prowizja sprzedawcy" z warunkiem:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   JEŻELI(cena_sprzedazy &gt; 1000; zysk * 0,2; zysk * 0,1)</t>
-  </si>
-  <si>
-    <t>4. Oblicz w osobnych komórkach poniżej:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Suma ceny sprzedaży (funkcja SUMA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Suma ceny sprzedaży dla produktów &gt; 1000 zł (funkcja SUMA.JEŻELI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Suma ceny sprzedaży dla produktów &lt;= 1000 zł (funkcja SUMA.JEŻELI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Suma ceny sprzedaży dla woj. mazowieckiego (funkcja SUMA.JEŻELI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Suma ceny sprzedaży w miesiącu "styczeń" (funkcja SUMA.JEŻELI)</t>
-  </si>
-  <si>
-    <t>Lp.</t>
-  </si>
-  <si>
-    <t>Miesiąc</t>
-  </si>
-  <si>
-    <t>Opis produktu</t>
-  </si>
-  <si>
-    <t>Cena z magazynu</t>
-  </si>
-  <si>
-    <t>Cena sprzedaży</t>
-  </si>
-  <si>
-    <t>Sprzedawca</t>
-  </si>
-  <si>
-    <t>Województwo</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 242,00 zł</t>
-  </si>
-  <si>
-    <t>1 602,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 164,00 zł</t>
-  </si>
-  <si>
-    <t>1 606,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 026,00 zł</t>
-  </si>
-  <si>
-    <t>1 416,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>969,00 zł</t>
-  </si>
-  <si>
-    <t>1 308,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>1 082,00 zł</t>
-  </si>
-  <si>
-    <t>1 428,00 zł</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 213,00 zł</t>
-  </si>
-  <si>
-    <t>1 613,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>604,00 zł</t>
-  </si>
-  <si>
-    <t>809,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>1 105,00 zł</t>
-  </si>
-  <si>
-    <t>1 414,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>691,00 zł</t>
-  </si>
-  <si>
-    <t>905,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 142,00 zł</t>
-  </si>
-  <si>
-    <t>1 530,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 406,00 zł</t>
-  </si>
-  <si>
-    <t>1 772,00 zł</t>
-  </si>
-  <si>
-    <t>1 003,00 zł</t>
-  </si>
-  <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>540,00 zł</t>
-  </si>
-  <si>
-    <t>718,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>1 200,00 zł</t>
-  </si>
-  <si>
-    <t>1 620,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 263,00 zł</t>
-  </si>
-  <si>
-    <t>1 629,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 174,00 zł</t>
-  </si>
-  <si>
-    <t>1 491,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>1 002,00 zł</t>
-  </si>
-  <si>
-    <t>1 102,00 zł</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>784,00 zł</t>
-  </si>
-  <si>
-    <t>878,00 zł</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>615,00 zł</t>
-  </si>
-  <si>
-    <t>812,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 010,00 zł</t>
-  </si>
-  <si>
-    <t>1 131,00 zł</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 120,00 zł</t>
-  </si>
-  <si>
-    <t>1 310,00 zł</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 215,00 zł</t>
-  </si>
-  <si>
-    <t>1 555,00 zł</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 306,00 zł</t>
-  </si>
-  <si>
-    <t>1 437,00 zł</t>
-  </si>
-  <si>
-    <t>861,00 zł</t>
-  </si>
-  <si>
-    <t>1 007,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>1 355,00 zł</t>
-  </si>
-  <si>
-    <t>1 667,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>606,00 zł</t>
-  </si>
-  <si>
-    <t>836,00 zł</t>
-  </si>
-  <si>
-    <t>1 340,00 zł</t>
-  </si>
-  <si>
-    <t>1 554,00 zł</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 276,00 zł</t>
-  </si>
-  <si>
-    <t>1 531,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1494,16 +1488,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
@@ -1515,19 +1509,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1536,19 +1530,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
       <c r="E19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1557,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1578,19 +1572,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
         <v>4</v>
       </c>
-      <c r="D21" s="3">
-        <v>6</v>
-      </c>
       <c r="E21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1602,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
@@ -1620,19 +1614,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1641,19 +1635,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
       </c>
       <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
         <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1662,19 +1656,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
         <v>6</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1683,19 +1677,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1704,19 +1698,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
         <v>4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1725,16 +1719,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="3">
-        <v>5</v>
-      </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
         <v>3</v>
@@ -1859,7 +1853,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1889,7 +1883,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1904,7 +1898,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1919,7 +1913,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1934,7 +1928,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2051,7 +2045,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2063,7 +2057,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2075,7 +2069,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2087,7 +2081,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2099,7 +2093,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2147,7 +2141,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2159,7 +2153,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2171,7 +2165,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2183,7 +2177,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2195,7 +2189,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2243,7 +2237,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2255,7 +2249,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2291,7 +2285,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2325,10 +2319,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A21" sqref="A21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2434,25 +2428,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2466,16 +2460,16 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
         <v>4</v>
@@ -2484,7 +2478,7 @@
         <v>6</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2498,10 +2492,10 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>6</v>
@@ -2513,10 +2507,10 @@
         <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2530,25 +2524,25 @@
         <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>5</v>
-      </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2556,31 +2550,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
       </c>
       <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3">
         <v>6</v>
       </c>
-      <c r="H16" s="3">
-        <v>5</v>
-      </c>
-      <c r="I16" s="3">
-        <v>3</v>
-      </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2591,28 +2585,28 @@
         <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="3">
         <v>2</v>
       </c>
       <c r="I17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2620,54 +2614,70 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="C19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2681,11 +2691,27 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2698,10 +2724,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A31" sqref="A31:B33"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2713,7 +2739,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2723,254 +2749,232 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3011,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3017,75 +3021,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3093,22 +3097,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3116,22 +3120,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3139,22 +3143,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3162,22 +3166,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3185,22 +3189,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3208,19 +3212,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>231</v>
@@ -3231,7 +3235,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>232</v>
@@ -3243,10 +3247,10 @@
         <v>234</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3254,22 +3258,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3277,22 +3281,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3300,22 +3304,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3323,22 +3327,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3346,22 +3350,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3369,22 +3373,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3392,22 +3396,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3415,22 +3419,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3438,22 +3442,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3461,22 +3465,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3484,22 +3488,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3507,10 +3511,10 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>275</v>
@@ -3522,7 +3526,7 @@
         <v>277</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3530,22 +3534,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3553,22 +3557,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>14</v>
+        <v>285</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3576,22 +3580,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3599,22 +3603,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3622,22 +3626,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3645,10 +3649,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>294</v>
@@ -3657,10 +3661,10 @@
         <v>295</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3668,22 +3672,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3691,22 +3695,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="G42" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3714,67 +3718,67 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G43" s="3" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_003.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_003.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>ZESTAW ZADAŃ NR 3 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 3 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>22,70</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,30</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>11,30</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>4,30</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,60</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,90</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>13,69</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>5,82</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>3,69</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>3,11</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>25,19</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>25,32</t>
-  </si>
-  <si>
-    <t>23,39</t>
-  </si>
-  <si>
-    <t>29,01</t>
-  </si>
-  <si>
-    <t>9,20</t>
-  </si>
-  <si>
-    <t>17,00</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>26,88</t>
-  </si>
-  <si>
-    <t>11,83</t>
-  </si>
-  <si>
-    <t>1,76</t>
-  </si>
-  <si>
-    <t>19,19</t>
-  </si>
-  <si>
-    <t>29,23</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -421,135 +343,90 @@
     <t>24.04.1982</t>
   </si>
   <si>
-    <t>2 699,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Król</t>
   </si>
   <si>
     <t>22.01.2005</t>
   </si>
   <si>
-    <t>6 460,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Wójcik</t>
   </si>
   <si>
     <t>18.12.1984</t>
   </si>
   <si>
-    <t>12 501,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Piekarska</t>
   </si>
   <si>
     <t>27.03.1987</t>
   </si>
   <si>
-    <t>10 225,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Kaczmarek</t>
   </si>
   <si>
     <t>17.01.2003</t>
   </si>
   <si>
-    <t>5 876,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Czarnecka</t>
   </si>
   <si>
     <t>12.09.2002</t>
   </si>
   <si>
-    <t>2 796,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Jaworska</t>
   </si>
   <si>
     <t>22.05.2001</t>
   </si>
   <si>
-    <t>7 145,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Sadowska</t>
   </si>
   <si>
     <t>23.09.1989</t>
   </si>
   <si>
-    <t>3 664,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Lewandowski</t>
   </si>
   <si>
     <t>20.02.1982</t>
   </si>
   <si>
-    <t>10 452,00 zł</t>
-  </si>
-  <si>
     <t>Anna Piekarska</t>
   </si>
   <si>
     <t>24.06.1998</t>
   </si>
   <si>
-    <t>7 808,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Lewandowski</t>
   </si>
   <si>
     <t>28.05.2004</t>
   </si>
   <si>
-    <t>8 312,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Sadowska</t>
   </si>
   <si>
     <t>06.02.2005</t>
   </si>
   <si>
-    <t>10 666,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Kaczmarek</t>
   </si>
   <si>
     <t>25.06.1996</t>
   </si>
   <si>
-    <t>10 352,00 zł</t>
-  </si>
-  <si>
     <t>Lena Wilk</t>
   </si>
   <si>
     <t>06.06.1977</t>
   </si>
   <si>
-    <t>7 618,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Nowak</t>
   </si>
   <si>
     <t>14.04.1977</t>
   </si>
   <si>
-    <t>14 716,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -562,9 +439,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -625,12 +499,6 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 173,00 zł</t>
-  </si>
-  <si>
-    <t>1 349,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -643,12 +511,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>707,00 zł</t>
-  </si>
-  <si>
-    <t>912,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -658,12 +520,6 @@
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 396,00 zł</t>
-  </si>
-  <si>
-    <t>1 787,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -676,12 +532,6 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 070,00 zł</t>
-  </si>
-  <si>
-    <t>1 284,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -691,12 +541,6 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>503,00 zł</t>
-  </si>
-  <si>
-    <t>563,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -709,33 +553,15 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 232,00 zł</t>
-  </si>
-  <si>
-    <t>1 417,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 086,00 zł</t>
-  </si>
-  <si>
-    <t>1 281,00 zł</t>
-  </si>
-  <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 192,00 zł</t>
-  </si>
-  <si>
-    <t>1 454,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
@@ -745,12 +571,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 274,00 zł</t>
-  </si>
-  <si>
-    <t>1 631,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -760,12 +580,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 172,00 zł</t>
-  </si>
-  <si>
-    <t>1 289,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -778,12 +592,6 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 108,00 zł</t>
-  </si>
-  <si>
-    <t>1 540,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -793,66 +601,18 @@
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 408,00 zł</t>
-  </si>
-  <si>
-    <t>1 563,00 zł</t>
-  </si>
-  <si>
-    <t>1 216,00 zł</t>
-  </si>
-  <si>
-    <t>1 581,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 457,00 zł</t>
-  </si>
-  <si>
-    <t>1 690,00 zł</t>
-  </si>
-  <si>
-    <t>1 439,00 zł</t>
-  </si>
-  <si>
-    <t>1 943,00 zł</t>
-  </si>
-  <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 219,00 zł</t>
-  </si>
-  <si>
-    <t>1 475,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
-    <t>1 065,00 zł</t>
-  </si>
-  <si>
-    <t>1 438,00 zł</t>
-  </si>
-  <si>
-    <t>1 050,00 zł</t>
-  </si>
-  <si>
-    <t>1 397,00 zł</t>
-  </si>
-  <si>
-    <t>966,00 zł</t>
-  </si>
-  <si>
-    <t>1 072,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -862,73 +622,22 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 112,00 zł</t>
-  </si>
-  <si>
-    <t>1 468,00 zł</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 051,00 zł</t>
-  </si>
-  <si>
-    <t>1 356,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
-    <t>1 369,00 zł</t>
-  </si>
-  <si>
-    <t>1 602,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 629,00 zł</t>
-  </si>
-  <si>
-    <t>700,00 zł</t>
-  </si>
-  <si>
-    <t>854,00 zł</t>
-  </si>
-  <si>
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 482,00 zł</t>
-  </si>
-  <si>
-    <t>1 704,00 zł</t>
-  </si>
-  <si>
-    <t>1 064,00 zł</t>
-  </si>
-  <si>
-    <t>1 362,00 zł</t>
-  </si>
-  <si>
-    <t>1 212,00 zł</t>
-  </si>
-  <si>
-    <t>1 660,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>1 034,00 zł</t>
-  </si>
-  <si>
-    <t>1 303,00 zł</t>
   </si>
   <si>
     <t>Jan Kowalski</t>
@@ -953,7 +662,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1010,14 +721,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1028,8 +739,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1060,30 +771,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,7 +1098,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1461,25 +1173,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1502,7 +1214,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1523,7 +1235,7 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1544,7 +1256,7 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1565,7 +1277,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1586,7 +1298,7 @@
       <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1607,7 +1319,7 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1628,7 +1340,7 @@
       <c r="F23" s="3">
         <v>6</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1649,7 +1361,7 @@
       <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1670,7 +1382,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1691,7 +1403,7 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1712,7 +1424,7 @@
       <c r="F27" s="3">
         <v>4</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1733,27 +1445,17 @@
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1787,7 +1489,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1807,7 +1509,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1817,29 +1519,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1847,99 +1549,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>22.7</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.3</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>11.3</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.3</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.6</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.9</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1972,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1997,113 +1699,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>13.69</v>
       </c>
       <c r="C15" s="3">
         <v>26</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>5.82</v>
       </c>
       <c r="C16" s="3">
         <v>22</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3.69</v>
       </c>
       <c r="C17" s="3">
         <v>31</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3.11</v>
       </c>
       <c r="C18" s="3">
         <v>34</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>25.19</v>
       </c>
       <c r="C19" s="3">
         <v>12</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2112,94 +1814,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>25.32</v>
       </c>
       <c r="C24" s="3">
         <v>43</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>23.39</v>
       </c>
       <c r="C25" s="3">
         <v>26</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>29.010000000000002</v>
       </c>
       <c r="C26" s="3">
         <v>15</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>9.2</v>
       </c>
       <c r="C27" s="3">
         <v>17</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>17</v>
       </c>
       <c r="C28" s="3">
         <v>47</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2208,98 +1910,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>26.88</v>
       </c>
       <c r="C33" s="3">
         <v>36</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>11.83</v>
       </c>
       <c r="C34" s="3">
         <v>37</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1.76</v>
       </c>
       <c r="C35" s="3">
         <v>8</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>19.19</v>
       </c>
       <c r="C36" s="3">
         <v>43</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>29.23</v>
       </c>
       <c r="C37" s="3">
         <v>44</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2322,7 +2024,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2342,90 +2044,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -2448,16 +2150,16 @@
       <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
@@ -2480,16 +2182,16 @@
       <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -2512,16 +2214,16 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2544,16 +2246,16 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -2576,16 +2278,16 @@
       <c r="J16" s="3">
         <v>4</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
@@ -2608,16 +2310,16 @@
       <c r="J17" s="3">
         <v>4</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -2640,16 +2342,16 @@
       <c r="J18" s="3">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -2672,40 +2374,40 @@
       <c r="J19" s="3">
         <v>5</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2738,244 +2440,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>122</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2699</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6460</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>12501</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10225</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5876</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2796</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7145</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3664</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7">
+        <v>10452</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7808</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8312</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10666</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10352</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>172</v>
+        <v>132</v>
+      </c>
+      <c r="C24" s="7">
+        <v>7618</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>175</v>
+        <v>134</v>
+      </c>
+      <c r="C25" s="7">
+        <v>14716</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>176</v>
+      <c r="A28" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3010,86 +2706,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>181</v>
+      <c r="A1" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>198</v>
+      <c r="A15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3097,22 +2793,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1173</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1349</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3120,22 +2816,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
+      </c>
+      <c r="D17" s="7">
+        <v>707</v>
+      </c>
+      <c r="E17" s="7">
+        <v>912</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3143,22 +2839,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1396</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1787</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3166,22 +2862,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1070</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1284</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3189,22 +2885,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
+      </c>
+      <c r="D20" s="7">
+        <v>503</v>
+      </c>
+      <c r="E20" s="7">
+        <v>563</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3212,22 +2908,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>230</v>
+        <v>176</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1232</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1417</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3235,22 +2931,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1086</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1281</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3258,22 +2954,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1192</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1454</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3281,22 +2977,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1274</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1631</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3304,22 +3000,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>247</v>
+        <v>185</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1172</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1289</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3327,22 +3023,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>253</v>
+        <v>189</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1108</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1540</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3350,22 +3046,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>258</v>
+        <v>192</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1408</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1563</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3373,22 +3069,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>260</v>
+        <v>189</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1216</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1581</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3396,22 +3092,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>264</v>
+        <v>194</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1457</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1690</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3419,22 +3115,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>266</v>
+        <v>178</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1439</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1943</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3442,22 +3138,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>269</v>
+        <v>195</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1219</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1475</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>270</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3465,22 +3161,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>272</v>
+        <v>192</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1065</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1438</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3488,22 +3184,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>274</v>
+        <v>189</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1050</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1397</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3511,22 +3207,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>276</v>
+        <v>195</v>
+      </c>
+      <c r="D34" s="7">
+        <v>966</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1072</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3534,22 +3230,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>281</v>
+        <v>199</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1112</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1468</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3557,22 +3253,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>284</v>
+        <v>200</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1051</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1356</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3580,22 +3276,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1369</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1602</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3603,22 +3299,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>290</v>
+        <v>203</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1172</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1629</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3626,22 +3322,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>292</v>
+        <v>178</v>
+      </c>
+      <c r="D39" s="7">
+        <v>700</v>
+      </c>
+      <c r="E39" s="7">
+        <v>854</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3649,22 +3345,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>295</v>
+        <v>204</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1482</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1704</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3672,22 +3368,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>297</v>
+        <v>185</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1064</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1362</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3695,22 +3391,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1212</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1660</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="G42" s="3" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3718,68 +3414,58 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>302</v>
+        <v>178</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1034</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1303</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>270</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>176</v>
+      <c r="A46" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>304</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>305</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>306</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>307</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>308</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_003.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_003.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>ZESTAW ZADAŃ NR 3 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Oliwia Sadowska</t>
-  </si>
-  <si>
-    <t>Anna Rogalska</t>
-  </si>
-  <si>
-    <t>Antoni Nowak</t>
-  </si>
-  <si>
-    <t>Natalia Zawadzka</t>
-  </si>
-  <si>
-    <t>Julia Wójcik</t>
+    <t>Aleksander Piotrowski</t>
+  </si>
+  <si>
+    <t>Lena Król</t>
+  </si>
+  <si>
+    <t>Hanna Sadowska</t>
+  </si>
+  <si>
+    <t>Kacper Kowalski</t>
+  </si>
+  <si>
+    <t>Hanna Kubiak</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 3 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,46 +266,52 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Kamiński</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
   </si>
   <si>
     <t>Amelia</t>
   </si>
   <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Sikorska</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Lis</t>
-  </si>
-  <si>
-    <t>Maciejewska</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Kacper</t>
   </si>
   <si>
     <t>Woźniak</t>
@@ -337,94 +350,49 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Aleksander Woźniak</t>
-  </si>
-  <si>
-    <t>24.04.1982</t>
-  </si>
-  <si>
-    <t>Emilia Król</t>
-  </si>
-  <si>
-    <t>22.01.2005</t>
+    <t>Wojciech Wiśniewski</t>
+  </si>
+  <si>
+    <t>Jakub Wiśniewski</t>
+  </si>
+  <si>
+    <t>Maja Król</t>
+  </si>
+  <si>
+    <t>Aleksander Szymański</t>
+  </si>
+  <si>
+    <t>Oliwia Olszewska</t>
+  </si>
+  <si>
+    <t>Wojciech Piotrowski</t>
+  </si>
+  <si>
+    <t>Oliwia Malinowska</t>
+  </si>
+  <si>
+    <t>Jakub Jankowski</t>
   </si>
   <si>
     <t>Mikołaj Wójcik</t>
   </si>
   <si>
-    <t>18.12.1984</t>
-  </si>
-  <si>
-    <t>Natalia Piekarska</t>
-  </si>
-  <si>
-    <t>27.03.1987</t>
-  </si>
-  <si>
-    <t>Kacper Kaczmarek</t>
-  </si>
-  <si>
-    <t>17.01.2003</t>
-  </si>
-  <si>
-    <t>Natalia Czarnecka</t>
-  </si>
-  <si>
-    <t>12.09.2002</t>
-  </si>
-  <si>
-    <t>Oliwia Jaworska</t>
-  </si>
-  <si>
-    <t>22.05.2001</t>
-  </si>
-  <si>
-    <t>Zuzanna Sadowska</t>
-  </si>
-  <si>
-    <t>23.09.1989</t>
-  </si>
-  <si>
-    <t>Wojciech Lewandowski</t>
-  </si>
-  <si>
-    <t>20.02.1982</t>
-  </si>
-  <si>
-    <t>Anna Piekarska</t>
-  </si>
-  <si>
-    <t>24.06.1998</t>
-  </si>
-  <si>
-    <t>Antoni Lewandowski</t>
-  </si>
-  <si>
-    <t>28.05.2004</t>
-  </si>
-  <si>
-    <t>Hanna Sadowska</t>
-  </si>
-  <si>
-    <t>06.02.2005</t>
-  </si>
-  <si>
-    <t>Mikołaj Kaczmarek</t>
-  </si>
-  <si>
-    <t>25.06.1996</t>
-  </si>
-  <si>
-    <t>Lena Wilk</t>
-  </si>
-  <si>
-    <t>06.06.1977</t>
-  </si>
-  <si>
-    <t>Wojciech Nowak</t>
-  </si>
-  <si>
-    <t>14.04.1977</t>
+    <t>Adam Mazur</t>
+  </si>
+  <si>
+    <t>Jan Kowalczyk</t>
+  </si>
+  <si>
+    <t>Emilia Olszewska</t>
+  </si>
+  <si>
+    <t>Aleksander Wiśniewski</t>
+  </si>
+  <si>
+    <t>Jan Wójcik</t>
+  </si>
+  <si>
+    <t>Filip Nowak</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -439,7 +407,70 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Szymon Piotrowski</t>
+  </si>
+  <si>
+    <t>Amelia Zawadzka</t>
+  </si>
+  <si>
+    <t>Mikołaj Krawczyk</t>
+  </si>
+  <si>
+    <t>Anna Malinowska</t>
+  </si>
+  <si>
+    <t>Natalia Wójcik</t>
+  </si>
+  <si>
+    <t>Emilia Urbaniak</t>
+  </si>
+  <si>
+    <t>Julia Maciejewska</t>
+  </si>
+  <si>
+    <t>Filip Kamiński</t>
+  </si>
+  <si>
+    <t>Kacper Zieliński</t>
+  </si>
+  <si>
+    <t>Filip Grabowski</t>
+  </si>
+  <si>
+    <t>Antoni Kamiński</t>
+  </si>
+  <si>
+    <t>Jakub Wojciechowski</t>
+  </si>
+  <si>
+    <t>Szymon Kozłowski</t>
+  </si>
+  <si>
+    <t>Amelia Urbaniak</t>
+  </si>
+  <si>
+    <t>Zuzanna Piekarska</t>
+  </si>
+  <si>
+    <t>Jan Kaczmarek</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -493,154 +524,145 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
     <t>kwiecień</t>
   </si>
   <si>
-    <t>Projektor multimedialny</t>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
   </si>
   <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
     <t>podlaskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -712,7 +734,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,12 +757,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -771,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -782,13 +798,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1095,7 +1110,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1200,19 +1215,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
         <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1221,19 +1236,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1242,16 +1257,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
         <v>3</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -1263,19 +1278,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1284,19 +1299,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
         <v>6</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1311,13 +1326,13 @@
         <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1326,16 +1341,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
         <v>6</v>
@@ -1347,19 +1362,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
         <v>6</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1368,19 +1383,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" s="3">
         <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1389,19 +1404,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>5</v>
       </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1410,16 +1425,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
         <v>4</v>
@@ -1434,16 +1449,16 @@
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1456,6 +1471,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1489,7 +1510,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1509,7 +1530,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1519,29 +1540,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1549,99 +1570,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>22.7</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6.4</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.3</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.8</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>11.3</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>10.7</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4.3</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2.7</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2.6</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5.9</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1.9</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>21.7</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1658,10 +1679,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1674,7 +1695,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1699,27 +1720,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1727,85 +1748,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>13.69</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>24.059999999999999</v>
       </c>
       <c r="C15" s="3">
-        <v>26</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>5.82</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>15.37</v>
       </c>
       <c r="C16" s="3">
-        <v>22</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>3.69</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>30.68</v>
       </c>
       <c r="C17" s="3">
-        <v>31</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>3.11</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>9.0099999999999998</v>
       </c>
       <c r="C18" s="3">
-        <v>34</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>25.19</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>16.5</v>
       </c>
       <c r="C19" s="3">
-        <v>12</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1814,8 +1835,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1823,85 +1844,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>25.32</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>27.75</v>
       </c>
       <c r="C24" s="3">
-        <v>43</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>23.39</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>10.62</v>
       </c>
       <c r="C25" s="3">
-        <v>26</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>29.010000000000002</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>7.18</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>9.2</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>15.38</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>17</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>14.12</v>
       </c>
       <c r="C28" s="3">
-        <v>47</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1910,8 +1931,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1919,89 +1940,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>26.88</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>14.27</v>
       </c>
       <c r="C33" s="3">
-        <v>36</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>11.83</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>22.22</v>
       </c>
       <c r="C34" s="3">
-        <v>37</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>1.76</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>5.16</v>
       </c>
       <c r="C35" s="3">
-        <v>8</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>19.19</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1.6</v>
       </c>
       <c r="C36" s="3">
-        <v>43</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>29.23</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>29.1</v>
       </c>
       <c r="C37" s="3">
-        <v>44</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2044,111 +2073,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
       <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4</v>
-      </c>
       <c r="J12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2156,31 +2185,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="3">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>6</v>
-      </c>
       <c r="J13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2188,28 +2217,28 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>6</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3">
         <v>6</v>
@@ -2220,31 +2249,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2252,31 +2281,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
         <v>6</v>
       </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
       <c r="G16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I16" s="3">
         <v>6</v>
       </c>
       <c r="J16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2284,28 +2313,28 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
       <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
         <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4</v>
       </c>
       <c r="H17" s="3">
         <v>2</v>
       </c>
       <c r="I17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
@@ -2316,28 +2345,28 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4</v>
       </c>
       <c r="J18" s="3">
         <v>3</v>
@@ -2348,38 +2377,38 @@
     <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3">
-        <v>6</v>
-      </c>
       <c r="H19" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2395,7 +2424,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2440,238 +2469,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>96</v>
+      <c r="A1" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2699</v>
+        <v>109</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C11" s="8">
+        <v>8824</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7">
-        <v>6460</v>
+        <v>110</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6593</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>12501</v>
+        <v>111</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7945</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="7">
-        <v>10225</v>
+      <c r="B14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3897</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>5876</v>
+      <c r="B15" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2599</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2796</v>
+        <v>114</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C16" s="8">
+        <v>10192</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7145</v>
+        <v>115</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7988</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3664</v>
+        <v>116</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C18" s="8">
+        <v>14357</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7">
-        <v>10452</v>
+        <v>117</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C19" s="8">
+        <v>14850</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7">
-        <v>7808</v>
+        <v>118</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4727</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7">
-        <v>8312</v>
+        <v>119</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C21" s="8">
+        <v>11602</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7">
-        <v>10666</v>
+        <v>120</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3204</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="7">
-        <v>10352</v>
+        <v>121</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C23" s="8">
+        <v>9209</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="7">
-        <v>7618</v>
+        <v>122</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C24" s="8">
+        <v>7040</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="7">
-        <v>14716</v>
+        <v>123</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C25" s="8">
+        <v>5489</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="17" t="s">
-        <v>135</v>
+      <c r="A28" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="B31" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2688,10 +2717,230 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A10" sqref="A10:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="3">
+        <v>131</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="3">
+        <v>123</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="3">
+        <v>172</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="3">
+        <v>153</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="3">
+        <v>200</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="3">
+        <v>132</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="3">
+        <v>115</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="3">
+        <v>122</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="3">
+        <v>111</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="3">
+        <v>116</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="3">
+        <v>191</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="3">
+        <v>185</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="3">
+        <v>168</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="3">
+        <v>117</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="3">
+        <v>129</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="3">
+        <v>162</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="3">
+        <v>148</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2706,86 +2955,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>139</v>
+      <c r="A1" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2793,22 +3042,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1173</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1349</v>
+        <v>168</v>
+      </c>
+      <c r="D16" s="8">
+        <v>564</v>
+      </c>
+      <c r="E16" s="8">
+        <v>790</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2816,22 +3065,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="7">
-        <v>707</v>
-      </c>
-      <c r="E17" s="7">
-        <v>912</v>
+        <v>172</v>
+      </c>
+      <c r="D17" s="8">
+        <v>903</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1219</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2839,22 +3088,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1396</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1787</v>
+        <v>176</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1195</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1338</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2862,22 +3111,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1070</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1284</v>
+        <v>178</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1499</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1709</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2885,22 +3134,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="7">
-        <v>503</v>
-      </c>
-      <c r="E20" s="7">
-        <v>563</v>
+        <v>180</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1351</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1851</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2908,22 +3157,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1232</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1417</v>
+        <v>182</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1067</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1312</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2931,22 +3180,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1086</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1281</v>
+        <v>176</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1062</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1168</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2954,22 +3203,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1192</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1454</v>
+        <v>186</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1355</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1816</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2977,22 +3226,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1274</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1631</v>
+        <v>188</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1023</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1207</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3000,22 +3249,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1172</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1289</v>
+        <v>186</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1095</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1500</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3023,22 +3272,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="8">
+        <v>695</v>
+      </c>
+      <c r="E26" s="8">
+        <v>966</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="7">
-        <v>1108</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1540</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="G26" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3046,22 +3295,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1408</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1563</v>
+        <v>194</v>
+      </c>
+      <c r="D27" s="8">
+        <v>578</v>
+      </c>
+      <c r="E27" s="8">
+        <v>740</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3069,22 +3318,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1216</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1581</v>
+        <v>172</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1142</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1485</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3092,22 +3341,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1457</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1690</v>
+        <v>182</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1479</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1834</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3115,22 +3364,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1439</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1943</v>
+        <v>199</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1039</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1278</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3138,22 +3387,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1219</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1475</v>
+        <v>201</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1468</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2026</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3161,22 +3410,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1065</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1438</v>
+        <v>194</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1044</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1336</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3184,22 +3433,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1050</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1397</v>
+        <v>182</v>
+      </c>
+      <c r="D33" s="8">
+        <v>932</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1081</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3207,22 +3456,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="7">
-        <v>966</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1072</v>
+        <v>193</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1008</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1200</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3233,19 +3482,19 @@
         <v>175</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1112</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1468</v>
+        <v>206</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1368</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1737</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3253,22 +3502,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1051</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1356</v>
+        <v>207</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1282</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1692</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3276,22 +3525,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1369</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1602</v>
+      <c r="D37" s="8">
+        <v>1343</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1759</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3299,22 +3548,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1172</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1629</v>
+        <v>209</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1005</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1176</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3322,22 +3571,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D39" s="7">
-        <v>700</v>
-      </c>
-      <c r="E39" s="7">
-        <v>854</v>
+      <c r="D39" s="8">
+        <v>607</v>
+      </c>
+      <c r="E39" s="8">
+        <v>759</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3345,127 +3594,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1112</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1346</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D40" s="7">
-        <v>1482</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1704</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="G40" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1064</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1362</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1212</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1660</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1034</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1303</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>196</v>
-      </c>
+      <c r="A43" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="17" t="s">
-        <v>135</v>
-      </c>
+      <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>207</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>208</v>
-      </c>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>209</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>210</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>211</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
